--- a/report/SachDB.xlsx
+++ b/report/SachDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t/>
   </si>
@@ -177,15 +177,6 @@
   </si>
   <si>
     <t>KD10.jpg</t>
-  </si>
-  <si>
-    <t>KD11</t>
-  </si>
-  <si>
-    <t>sadas</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -236,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,7 +351,7 @@
         <v>2016.0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.0</v>
+        <v>56.0</v>
       </c>
       <c r="H4" t="n">
         <v>75000.0</v>
@@ -563,42 +554,13 @@
         <v>2018.0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.0</v>
+        <v>54.0</v>
       </c>
       <c r="H11" t="n">
         <v>45000.0</v>
       </c>
       <c r="I11" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25666.0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
